--- a/va_facility_data_2025-02-20/George E. Wahlen Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''George%20E.%20Wahlen%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/George E. Wahlen Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''George%20E.%20Wahlen%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ra6aad6ced89848089fbb2c8cdd884743"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R23e00c61f0d9481a89b36d4d368b0d46"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R46e5918d29584386ac3f0d2646d3e384"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R76a4db141331441892426f59d3af96a8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R38d5640e362442ecb7bda58f86e80681"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re93149e748304dd29235430b168a52b6"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd1d0e804855f41e1a5b56cf8a49de117"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rdc103884ea024563a171b759f61c911c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1ddc6d8a48f341acabcb2224da3df836"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rfcaa611b57c24aba914187a6dd9d37b3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9eff4bef85b14c6b956dc9b8ca75e1d8"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb97b5ff1633640c593fa8d391df6bac4"/>
   </x:sheets>
 </x:workbook>
 </file>
